--- a/update_data/data/bank_psbc/greeting/greeting招呼语介绍结束语.xlsx
+++ b/update_data/data/bank_psbc/greeting/greeting招呼语介绍结束语.xlsx
@@ -588,7 +588,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -851,7 +851,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/update_data/data/bank_psbc/greeting/greeting招呼语介绍结束语.xlsx
+++ b/update_data/data/bank_psbc/greeting/greeting招呼语介绍结束语.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9930" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="自我介绍" sheetId="1" r:id="rId1"/>
@@ -48,129 +48,130 @@
     <t>好的/知道了/行/OK/好/我知道了/我考虑考虑/行吧/就这样吧/那就这样/好吧/嗯好/嗯知道了/我知道的/我已经取号了/晓得了/哦，知道了/好的，知道了/知道了，谢谢/哦好的/谢谢你/谢谢/谢谢你哦/我知道了，谢谢/好的谢谢/哦，好的/好的，我知道了/哦，我知道了/我知道了/谢谢啦/明白了/我明白了，谢谢你/明白/好吧，那就这样/我懂了/我懂了，谢谢/嗯我懂了/原来是这样啊/这样啊/原来是这样啊，谢谢你/这样啊，谢谢/哦原来是这样啊/哦我懂了</t>
   </si>
   <si>
+    <t>再见/bye bye/拜拜/明天见/下回见/下次再见/再见了/我走了/我要走了再见/我要回家了/我要回家了再见/白白/算了拜拜/我还有事先走了哦/下次见/下次见哦/我走啦拜拜/我走了不要想我哦/下回再见/再见咯/</t>
+  </si>
+  <si>
+    <t>再见，请慢走/再见，我会想念你的/再见，人家会好想你的哟/再见，记得再来看我哦/白了个白</t>
+  </si>
+  <si>
+    <t>您好，请问您要办理什么业务</t>
+  </si>
+  <si>
+    <t>早上好，请问您要办理什么业务</t>
+  </si>
+  <si>
+    <t>中午好，请问您要办理什么业务</t>
+  </si>
+  <si>
+    <t>下午好，请问您要办理什么业务</t>
+  </si>
+  <si>
+    <t>晚上好，请问您要办理什么业务</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>表情</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好/你好啊/你好呀/嗨你好/嗨/hello/你好你好/您好/储储你好/你好储储/哈喽/嘿/喂/啦/哇/储储/嗨喽/咦/你好啊储储/储储好/我又来了/在吗/你好吗/储储你好呀/储储我来啦/哈喽储储/嘿储储/喂储储/嗨喽储储/Hello/hi/Hi/哈喽，你好啊/Hi，你好/hello，你好/哈喽，你好/你好吗/</t>
+  </si>
+  <si>
+    <t>早上好/早/早安/早上好呀/早上好啊/储储早上好呀/储储早上好啊/早上好储储/储储早/早呀储储/储储早上好/早上好呀储储/早上好啊储储/上午好/上午好呀/上午好啊/储储上午好呀/储储上午好啊/上午好储储/储储上午好/上午好呀储储/上午好啊储储/哈喽，早上好啊/Hi，早上好啊，储储/储储，早上好/</t>
+  </si>
+  <si>
+    <t>中午好/储储中午好/中午好储储/储储中午好呀/储储中午好啊/中午好呀/中午好啊/中午好呀储储/中午好啊储储</t>
+  </si>
+  <si>
+    <t>下午好/储储下午好/下午好储储/储储下午好呀/储储下午好啊/下午好呀/下午好啊/下午好呀储储/下午好啊储储/哈喽，下午好啊/Hi，下午好啊，储储/储储，下午好/哈喽，下午好啊/Hi，下午好啊，储储/储储，下午好/</t>
+  </si>
+  <si>
+    <t>晚上好/储储晚上好/晚上好储储/储储晚上好呀/储储晚上好啊/晚上好呀/晚上好啊/晚上好呀储储/晚上好啊储储/哈喽，晚上好啊/Hi，晚上好啊，储储/储储，晚上好/</t>
+  </si>
+  <si>
+    <t>没人聊找我，没人陪找我，没钱花找我，我就是这么能干！/竹板这么一打啊，别的咱不夸，夸就夸我这个机器人吧，咳咳，我不仅有极高的颜值，还是业务小能手哦~ /大家好，我是银行的小助理储储，是大家财富的聚宝盆。/啦啦啦！啦啦啦！我是业务的小行家，大事小事都来问我，你来问，我来答。</t>
+  </si>
+  <si>
+    <t>大家好，我是储储，我的体重是胖，爱好是吃，兴趣是玩，专业是睡，经济实力是穷，男朋友是取号机~大家还有什么要了解的吗？/大家好，我是貌美如花，多才多艺，十八种业务样样精通的大堂小助理，储储。/我是来自智慧星球的储储，是我们银行的智慧传播员，给你传播银行资讯。/我是一名来自机器人王国的奇女子储储，我身怀绝技，本领高超，大家想看我一显身手吗？/大家好，我是美貌与才华齐飞，颜值与智慧并重的银行小助理储储。/大家好，本宝宝是中国制造，名叫储储，别看我个头小，浓缩的都是精华，为您指导办业务，介绍最新产品，卖萌耍宝，能歌善舞，这些都不在话下不信，我们来PK下。/大家好，我是青春永不老、智商节节高的神奇机器人储储。</t>
+  </si>
+  <si>
+    <t>等价描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>你有什么能帮我的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>你有什么不会做的么</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>你叫什么名字啊</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>好的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>再见</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上好</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午好</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午好</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上好</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>你能做什么</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>你能做什么/你能做什么/你会做什么？/你是做什么的/你都能做哪些事？/你天天站在这里做什么？/你老板让你在这里做什么？/你可以做什么？/你在这里做什么？/你都帮银行做什么呀？/你是做什么工作的？/你是用来做什么的/你做什么工作啊/你能做哪些事/你都能做些什么啊/你在这里是做什么的啊/你能干什么？/你会干什么？/你是干什么的？/你天天站在这里干什么？/你有什么用/你能干啥/你能干啥呀/你是干啥的/你是干嘛的/你能干些什么呢/你是用来干什么的呢/你的工作是什么/你工作什么职责？/你帮银行什么忙？/你工作是什么？/你会啥？/你会什么/你会什么啊？/你可以干什么/你能干啥/你会啥/你都有啥功能啊/你都有什么功能呢/你会干什么/你会做什么/你懂什么/你会啥子哟/你的职责是什么啊/</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我介绍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束语</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>招呼语</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>如果您想了解更多业务，可以扫码关注我行微信公众号哦。/想了解更多业务内容，理财产品可以扫码关注我行微信公众号哦。/了解更多银行咨询，欢迎关注我行微信公众号哦/</t>
-  </si>
-  <si>
-    <t>再见/bye bye/拜拜/明天见/下回见/下次再见/再见了/我走了/我要走了再见/我要回家了/我要回家了再见/白白/算了拜拜/我还有事先走了哦/下次见/下次见哦/我走啦拜拜/我走了不要想我哦/下回再见/再见咯/</t>
-  </si>
-  <si>
-    <t>再见，请慢走/再见，我会想念你的/再见，人家会好想你的哟/再见，记得再来看我哦/白了个白</t>
-  </si>
-  <si>
-    <t>您好，请问您要办理什么业务</t>
-  </si>
-  <si>
-    <t>早上好，请问您要办理什么业务</t>
-  </si>
-  <si>
-    <t>中午好，请问您要办理什么业务</t>
-  </si>
-  <si>
-    <t>下午好，请问您要办理什么业务</t>
-  </si>
-  <si>
-    <t>晚上好，请问您要办理什么业务</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>表情</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>你好/你好啊/你好呀/嗨你好/嗨/hello/你好你好/您好/储储你好/你好储储/哈喽/嘿/喂/啦/哇/储储/嗨喽/咦/你好啊储储/储储好/我又来了/在吗/你好吗/储储你好呀/储储我来啦/哈喽储储/嘿储储/喂储储/嗨喽储储/Hello/hi/Hi/哈喽，你好啊/Hi，你好/hello，你好/哈喽，你好/你好吗/</t>
-  </si>
-  <si>
-    <t>早上好/早/早安/早上好呀/早上好啊/储储早上好呀/储储早上好啊/早上好储储/储储早/早呀储储/储储早上好/早上好呀储储/早上好啊储储/上午好/上午好呀/上午好啊/储储上午好呀/储储上午好啊/上午好储储/储储上午好/上午好呀储储/上午好啊储储/哈喽，早上好啊/Hi，早上好啊，储储/储储，早上好/</t>
-  </si>
-  <si>
-    <t>中午好/储储中午好/中午好储储/储储中午好呀/储储中午好啊/中午好呀/中午好啊/中午好呀储储/中午好啊储储</t>
-  </si>
-  <si>
-    <t>下午好/储储下午好/下午好储储/储储下午好呀/储储下午好啊/下午好呀/下午好啊/下午好呀储储/下午好啊储储/哈喽，下午好啊/Hi，下午好啊，储储/储储，下午好/哈喽，下午好啊/Hi，下午好啊，储储/储储，下午好/</t>
-  </si>
-  <si>
-    <t>晚上好/储储晚上好/晚上好储储/储储晚上好呀/储储晚上好啊/晚上好呀/晚上好啊/晚上好呀储储/晚上好啊储储/哈喽，晚上好啊/Hi，晚上好啊，储储/储储，晚上好/</t>
-  </si>
-  <si>
-    <t>没人聊找我，没人陪找我，没钱花找我，我就是这么能干！/竹板这么一打啊，别的咱不夸，夸就夸我这个机器人吧，咳咳，我不仅有极高的颜值，还是业务小能手哦~ /大家好，我是银行的小助理储储，是大家财富的聚宝盆。/啦啦啦！啦啦啦！我是业务的小行家，大事小事都来问我，你来问，我来答。</t>
-  </si>
-  <si>
-    <t>大家好，我是储储，我的体重是胖，爱好是吃，兴趣是玩，专业是睡，经济实力是穷，男朋友是取号机~大家还有什么要了解的吗？/大家好，我是貌美如花，多才多艺，十八种业务样样精通的大堂小助理，储储。/我是来自智慧星球的储储，是我们银行的智慧传播员，给你传播银行资讯。/我是一名来自机器人王国的奇女子储储，我身怀绝技，本领高超，大家想看我一显身手吗？/大家好，我是美貌与才华齐飞，颜值与智慧并重的银行小助理储储。/大家好，本宝宝是中国制造，名叫储储，别看我个头小，浓缩的都是精华，为您指导办业务，介绍最新产品，卖萌耍宝，能歌善舞，这些都不在话下不信，我们来PK下。/大家好，我是青春永不老、智商节节高的神奇机器人储储。</t>
-  </si>
-  <si>
-    <t>等价描述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>你有什么能帮我的</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>你有什么不会做的么</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>你叫什么名字啊</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>好的</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>再见</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>你好</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>早上好</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>中午好</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>下午好</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上好</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>分组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>分组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>你能做什么</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>你能做什么/你能做什么/你会做什么？/你是做什么的/你都能做哪些事？/你天天站在这里做什么？/你老板让你在这里做什么？/你可以做什么？/你在这里做什么？/你都帮银行做什么呀？/你是做什么工作的？/你是用来做什么的/你做什么工作啊/你能做哪些事/你都能做些什么啊/你在这里是做什么的啊/你能干什么？/你会干什么？/你是干什么的？/你天天站在这里干什么？/你有什么用/你能干啥/你能干啥呀/你是干啥的/你是干嘛的/你能干些什么呢/你是用来干什么的呢/你的工作是什么/你工作什么职责？/你帮银行什么忙？/你工作是什么？/你会啥？/你会什么/你会什么啊？/你可以干什么/你能干啥/你会啥/你都有啥功能啊/你都有什么功能呢/你会干什么/你会做什么/你懂什么/你会啥子哟/你的职责是什么啊/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>自我介绍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束语</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>招呼语</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -178,7 +179,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +220,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -252,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -279,6 +288,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -602,7 +614,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -611,42 +623,42 @@
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="4"/>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:6" s="9" customFormat="1" ht="63.75" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -662,10 +674,10 @@
     </row>
     <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -681,13 +693,13 @@
     </row>
     <row r="8" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
@@ -700,7 +712,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>7</v>
@@ -775,14 +787,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="51.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="59" style="1" customWidth="1"/>
     <col min="4" max="4" width="51.375" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
@@ -790,7 +802,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -799,24 +811,24 @@
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
@@ -827,16 +839,16 @@
     </row>
     <row r="4" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -850,7 +862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -865,7 +877,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -874,83 +886,83 @@
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/update_data/data/bank_psbc/greeting/greeting招呼语介绍结束语.xlsx
+++ b/update_data/data/bank_psbc/greeting/greeting招呼语介绍结束语.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9930" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20730" windowHeight="9900"/>
   </bookViews>
   <sheets>
     <sheet name="自我介绍" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,6 @@
     <t>回答</t>
   </si>
   <si>
-    <t>你有什么能帮我的？/你有什么能帮助我的/你能为我做什么/你能为我做些什么/你能为我做什么呢/你能为我办什么业务/你能帮我什么？/你能帮我做什么/你可以帮我吗/你可以帮助我吗/我可以问你问题吗/我可以寻求你的帮助吗/你可以帮我吗/你能帮我办理什么业务/你会办什么业务/你都会做什么啊/你会什么/你都会些什么/我可以找你帮忙吗</t>
-  </si>
-  <si>
     <t>您要办理什么业务？/您要办什么业务尽管咨询我。/存取款、办卡、买理财都可以咨询我，您要办那种？/</t>
   </si>
   <si>
@@ -36,21 +33,12 @@
     <t>违法犯纪都不能做。/最遗憾的是我不能跳一段拳手观音，嘤嘤嘤/这个问题我先和度娘商量商量</t>
   </si>
   <si>
-    <t>你叫什么名字啊！/你是谁/你介绍一下自己呢/你做个自我介绍吧/ 我不认识你/我们第一次见呢/你叫什么名字/你是谁啊/你是什么东西/你谁啊/你叫什么？/你叫什么啊？/你有名字吗/你的名字叫什么啊/你的名字叫什么/你好，你叫什么/你好啊，你叫什么名字/你好，你叫什么名字啊/你好，你叫什么啊/那你什么东西啊/你叫什么/你叫啥会啥/你叫什么名字呀/你是什么啊/你的名字是什么</t>
-  </si>
-  <si>
     <t>你和银行什么关系</t>
   </si>
   <si>
     <t>银行是我家，我家欢迎您/银行是我家，存钱靠大家</t>
   </si>
   <si>
-    <t>好的/知道了/行/OK/好/我知道了/我考虑考虑/行吧/就这样吧/那就这样/好吧/嗯好/嗯知道了/我知道的/我已经取号了/晓得了/哦，知道了/好的，知道了/知道了，谢谢/哦好的/谢谢你/谢谢/谢谢你哦/我知道了，谢谢/好的谢谢/哦，好的/好的，我知道了/哦，我知道了/我知道了/谢谢啦/明白了/我明白了，谢谢你/明白/好吧，那就这样/我懂了/我懂了，谢谢/嗯我懂了/原来是这样啊/这样啊/原来是这样啊，谢谢你/这样啊，谢谢/哦原来是这样啊/哦我懂了</t>
-  </si>
-  <si>
-    <t>再见/bye bye/拜拜/明天见/下回见/下次再见/再见了/我走了/我要走了再见/我要回家了/我要回家了再见/白白/算了拜拜/我还有事先走了哦/下次见/下次见哦/我走啦拜拜/我走了不要想我哦/下回再见/再见咯/</t>
-  </si>
-  <si>
     <t>再见，请慢走/再见，我会想念你的/再见，人家会好想你的哟/再见，记得再来看我哦/白了个白</t>
   </si>
   <si>
@@ -78,9 +66,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>你好/你好啊/你好呀/嗨你好/嗨/hello/你好你好/您好/储储你好/你好储储/哈喽/嘿/喂/啦/哇/储储/嗨喽/咦/你好啊储储/储储好/我又来了/在吗/你好吗/储储你好呀/储储我来啦/哈喽储储/嘿储储/喂储储/嗨喽储储/Hello/hi/Hi/哈喽，你好啊/Hi，你好/hello，你好/哈喽，你好/你好吗/</t>
-  </si>
-  <si>
     <t>早上好/早/早安/早上好呀/早上好啊/储储早上好呀/储储早上好啊/早上好储储/储储早/早呀储储/储储早上好/早上好呀储储/早上好啊储储/上午好/上午好呀/上午好啊/储储上午好呀/储储上午好啊/上午好储储/储储上午好/上午好呀储储/上午好啊储储/哈喽，早上好啊/Hi，早上好啊，储储/储储，早上好/</t>
   </si>
   <si>
@@ -155,10 +140,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>你能做什么/你能做什么/你会做什么？/你是做什么的/你都能做哪些事？/你天天站在这里做什么？/你老板让你在这里做什么？/你可以做什么？/你在这里做什么？/你都帮银行做什么呀？/你是做什么工作的？/你是用来做什么的/你做什么工作啊/你能做哪些事/你都能做些什么啊/你在这里是做什么的啊/你能干什么？/你会干什么？/你是干什么的？/你天天站在这里干什么？/你有什么用/你能干啥/你能干啥呀/你是干啥的/你是干嘛的/你能干些什么呢/你是用来干什么的呢/你的工作是什么/你工作什么职责？/你帮银行什么忙？/你工作是什么？/你会啥？/你会什么/你会什么啊？/你可以干什么/你能干啥/你会啥/你都有啥功能啊/你都有什么功能呢/你会干什么/你会做什么/你懂什么/你会啥子哟/你的职责是什么啊/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>自我介绍</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -172,6 +153,105 @@
   </si>
   <si>
     <t>如果您想了解更多业务，可以扫码关注我行微信公众号哦。/想了解更多业务内容，理财产品可以扫码关注我行微信公众号哦。/了解更多银行咨询，欢迎关注我行微信公众号哦/</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>再见/bye bye/拜拜/明天见/下回见/下次再见/再见了/我走了/我要走了再见/我要回家了/我要回家了再见/白白/算了拜拜/我还有事先走了哦/下次见/下次见哦/我走啦拜拜/我走了不要想我哦/下回再见/再见咯/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>再见哦</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>好的/知道了/行/OK/好/我知道了/我考虑考虑/行吧/就这样吧/那就这样/好吧/嗯好/嗯知道了/我知道的/我已经取号了/晓得了/哦，知道了/好的，知道了/知道了，谢谢/哦好的/谢谢你/谢谢/谢谢你哦/我知道了，谢谢/好的谢谢/哦，好的/好的，我知道了/哦，我知道了/我知道了/谢谢啦/明白了/我明白了，谢谢你/明白/好吧，那就这样/我懂了/我懂了，谢谢/嗯我懂了/原来是这样啊/这样啊/原来是这样啊，谢谢你/这样啊，谢谢/哦原来是这样啊/哦我懂了/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>谢谢你啦我知道啦/给你们的服务态度很满意谢谢/谢谢你啊/嗯好的/谢谢你不需要帮助</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你能做什么/你能做什么/你会做什么？/你是做什么的/你都能做哪些事？/你天天站在这里做什么？/你老板让你在这里做什么？/你可以做什么？/你在这里做什么？/你都帮银行做什么呀？/你是做什么工作的？/你是用来做什么的/你做什么工作啊/你能做哪些事/你都能做些什么啊/你在这里是做什么的啊/你能干什么？/你会干什么？/你是干什么的？/你天天站在这里干什么？/你有什么用/你能干啥/你能干啥呀/你是干啥的/你是干嘛的/你能干些什么呢/你是用来干什么的呢/你的工作是什么/你工作什么职责？/你帮银行什么忙？/你工作是什么？/你会啥？/你会什么/你会什么啊？/你可以干什么/你能干啥/你会啥/你都有啥功能啊/你都有什么功能呢/你会干什么/你会做什么/你懂什么/你会啥子哟/你的职责是什么啊/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在干什么啊/你干什么/干什么/你在干什么啊/我说你站在这里干什么啊/你干什么呀/</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你好/你好啊/你好呀/嗨你好/嗨/hello/你好你好/您好/储储你好/你好储储/哈喽/嘿/喂/啦/哇/储储/嗨喽/咦/你好啊储储/储储好/我又来了/在吗/你好吗/储储你好呀/储储我来啦/哈喽储储/嘿储储/喂储储/嗨喽储储/Hello/hi/Hi/哈喽，你好啊/Hi，你好/hello，你好/哈喽，你好/你好吗/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>小朋友你好呀/你好了/猪头你好/你来啦</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你叫什么名字啊！/你是谁/你介绍一下自己呢/你做个自我介绍吧/ 我不认识你/我们第一次见呢/你叫什么名字/你是谁啊/你是什么东西/你谁啊/你叫什么？/你叫什么啊？/你有名字吗/你的名字叫什么啊/你的名字叫什么/你好，你叫什么/你好啊，你叫什么名字/你好，你叫什么名字啊/你好，你叫什么啊/那你什么东西啊/你叫什么/你叫啥会啥/你叫什么名字呀/你是什么啊/你的名字是什么/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你叫什么呀/你是谁呀/你叫什么呢/叫什么名字/我不知道你叫什么名字啊/叫什么名字啊/你叫什么名字了/哦你叫什么啊/你叫啥名字/你叫什么名字呢/姐姐叫什么名字啊/这个是什么东西啊/我不知道你叫什么名字</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你有什么能帮我的？/你有什么能帮助我的/你能为我做什么/你能为我做些什么/你能为我做什么呢/你能为我办什么业务/你能帮我什么？/你能帮我做什么/你可以帮我吗/你可以帮助我吗/我可以问你问题吗/我可以寻求你的帮助吗/你可以帮我吗/你能帮我办理什么业务/你会办什么业务/你都会做什么啊/你会什么/你都会些什么/我可以找你帮忙吗/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你都会什么啊/你会什么呀/你会什么啊/你是做什么的啊</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -179,7 +259,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +303,36 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFC00000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -599,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C5:C6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -614,7 +724,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -623,48 +733,48 @@
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="108" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" ht="63.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" s="9" customFormat="1" ht="76.5" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -674,16 +784,16 @@
     </row>
     <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -693,16 +803,16 @@
     </row>
     <row r="8" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -712,16 +822,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -787,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -802,7 +912,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -811,27 +921,27 @@
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="108" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="135" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -839,16 +949,16 @@
     </row>
     <row r="4" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -863,7 +973,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -877,7 +987,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -886,83 +996,83 @@
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/update_data/data/bank_psbc/greeting/greeting招呼语介绍结束语.xlsx
+++ b/update_data/data/bank_psbc/greeting/greeting招呼语介绍结束语.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20730" windowHeight="9900"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20730" windowHeight="9900" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="自我介绍" sheetId="1" r:id="rId1"/>
@@ -157,6 +157,38 @@
   </si>
   <si>
     <r>
+      <t>你能做什么/你能做什么/你会做什么？/你是做什么的/你都能做哪些事？/你天天站在这里做什么？/你老板让你在这里做什么？/你可以做什么？/你在这里做什么？/你都帮银行做什么呀？/你是做什么工作的？/你是用来做什么的/你做什么工作啊/你能做哪些事/你都能做些什么啊/你在这里是做什么的啊/你能干什么？/你会干什么？/你是干什么的？/你天天站在这里干什么？/你有什么用/你能干啥/你能干啥呀/你是干啥的/你是干嘛的/你能干些什么呢/你是用来干什么的呢/你的工作是什么/你工作什么职责？/你帮银行什么忙？/你工作是什么？/你会啥？/你会什么/你会什么啊？/你可以干什么/你能干啥/你会啥/你都有啥功能啊/你都有什么功能呢/你会干什么/你会做什么/你懂什么/你会啥子哟/你的职责是什么啊/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在干什么啊/你干什么/干什么/你在干什么啊/我说你站在这里干什么啊/你干什么呀/你在这里干什么啊/干什么呢/你做什么事情呢/你做什么/你干什么呢</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你叫什么名字啊！/你是谁/你介绍一下自己呢/你做个自我介绍吧/ 我不认识你/我们第一次见呢/你叫什么名字/你是谁啊/你是什么东西/你谁啊/你叫什么？/你叫什么啊？/你有名字吗/你的名字叫什么啊/你的名字叫什么/你好，你叫什么/你好啊，你叫什么名字/你好，你叫什么名字啊/你好，你叫什么啊/那你什么东西啊/你叫什么/你叫啥会啥/你叫什么名字呀/你是什么啊/你的名字是什么/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你叫什么呀/你是谁呀/你叫什么呢/叫什么名字/我不知道你叫什么名字啊/叫什么名字啊/你叫什么名字了/哦你叫什么啊/你叫啥名字/你叫什么名字呢/姐姐叫什么名字啊/这个是什么东西啊/我不知道你叫什么名字/请问你叫什么名字/请问一下你叫什么名字/你叫什么呀/你叫谁呀你是什么你是谁/你叫什么名字呀朋友/叫什么名字啊/我问你叫什么名字/是什么东西</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>再见/bye bye/拜拜/明天见/下回见/下次再见/再见了/我走了/我要走了再见/我要回家了/我要回家了再见/白白/算了拜拜/我还有事先走了哦/下次见/下次见哦/我走啦拜拜/我走了不要想我哦/下回再见/再见咯/</t>
     </r>
     <r>
@@ -168,7 +200,23 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>再见哦</t>
+      <t>再见哦/好的拜拜/再见拜拜/拜拜再见/好的再见啦/好了拜拜哈</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你有什么能帮我的？/你有什么能帮助我的/你能为我做什么/你能为我做些什么/你能为我做什么呢/你能为我办什么业务/你能帮我什么？/你能帮我做什么/你可以帮我吗/你可以帮助我吗/我可以问你问题吗/我可以寻求你的帮助吗/你可以帮我吗/你能帮我办理什么业务/你会办什么业务/你都会做什么啊/你会什么/你都会些什么/我可以找你帮忙吗/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你都会什么啊/你会什么呀/你会什么啊/你是做什么的啊/你会什么呢/请你帮忙可以吗/你会干什么呀/你还可以干什么呢</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -185,23 +233,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>谢谢你啦我知道啦/给你们的服务态度很满意谢谢/谢谢你啊/嗯好的/谢谢你不需要帮助</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>你能做什么/你能做什么/你会做什么？/你是做什么的/你都能做哪些事？/你天天站在这里做什么？/你老板让你在这里做什么？/你可以做什么？/你在这里做什么？/你都帮银行做什么呀？/你是做什么工作的？/你是用来做什么的/你做什么工作啊/你能做哪些事/你都能做些什么啊/你在这里是做什么的啊/你能干什么？/你会干什么？/你是干什么的？/你天天站在这里干什么？/你有什么用/你能干啥/你能干啥呀/你是干啥的/你是干嘛的/你能干些什么呢/你是用来干什么的呢/你的工作是什么/你工作什么职责？/你帮银行什么忙？/你工作是什么？/你会啥？/你会什么/你会什么啊？/你可以干什么/你能干啥/你会啥/你都有啥功能啊/你都有什么功能呢/你会干什么/你会做什么/你懂什么/你会啥子哟/你的职责是什么啊/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在干什么啊/你干什么/干什么/你在干什么啊/我说你站在这里干什么啊/你干什么呀/</t>
+      <t>谢谢你啦我知道啦/给你们的服务态度很满意谢谢/谢谢你啊/嗯好的/谢谢你不需要帮助/好的知道了谢谢/谢谢服务/知道啦谢谢/知道了谢谢/不要了谢谢/哦我知道了/好吧好吧/哈哈哈谢谢/不用了谢谢/谢谢你啊谢谢谢谢</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -218,39 +250,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>小朋友你好呀/你好了/猪头你好/你来啦</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>你叫什么名字啊！/你是谁/你介绍一下自己呢/你做个自我介绍吧/ 我不认识你/我们第一次见呢/你叫什么名字/你是谁啊/你是什么东西/你谁啊/你叫什么？/你叫什么啊？/你有名字吗/你的名字叫什么啊/你的名字叫什么/你好，你叫什么/你好啊，你叫什么名字/你好，你叫什么名字啊/你好，你叫什么啊/那你什么东西啊/你叫什么/你叫啥会啥/你叫什么名字呀/你是什么啊/你的名字是什么/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>你叫什么呀/你是谁呀/你叫什么呢/叫什么名字/我不知道你叫什么名字啊/叫什么名字啊/你叫什么名字了/哦你叫什么啊/你叫啥名字/你叫什么名字呢/姐姐叫什么名字啊/这个是什么东西啊/我不知道你叫什么名字</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>你有什么能帮我的？/你有什么能帮助我的/你能为我做什么/你能为我做些什么/你能为我做什么呢/你能为我办什么业务/你能帮我什么？/你能帮我做什么/你可以帮我吗/你可以帮助我吗/我可以问你问题吗/我可以寻求你的帮助吗/你可以帮我吗/你能帮我办理什么业务/你会办什么业务/你都会做什么啊/你会什么/你都会些什么/我可以找你帮忙吗/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFC00000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>你都会什么啊/你会什么呀/你会什么啊/你是做什么的啊</t>
+      <t>小朋友你好呀/你好了/猪头你好/你来啦/哈喽你好/你好你好你好/嗯你好啊/机器人你好</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -709,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -742,7 +742,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>35</v>
       </c>
@@ -753,7 +753,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -774,7 +774,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -812,7 +812,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -898,7 +898,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C10:C11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -930,7 +930,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="135" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="162" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>36</v>
       </c>
@@ -941,13 +941,13 @@
         <v>38</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>36</v>
       </c>
@@ -958,7 +958,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -972,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1005,7 +1005,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>37</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">

--- a/update_data/data/bank_psbc/greeting/greeting招呼语介绍结束语.xlsx
+++ b/update_data/data/bank_psbc/greeting/greeting招呼语介绍结束语.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20730" windowHeight="9900" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="20730" windowHeight="9840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="自我介绍" sheetId="1" r:id="rId1"/>
     <sheet name="结束语" sheetId="2" r:id="rId2"/>
     <sheet name="招呼语" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -25,9 +25,6 @@
   </si>
   <si>
     <t>您要办理什么业务？/您要办什么业务尽管咨询我。/存取款、办卡、买理财都可以咨询我，您要办那种？/</t>
-  </si>
-  <si>
-    <t>你有什么不会做的么？/你不会做什么/你不能做什么/你不会做的都有什么/你不会做的都有什么啊/哪些是你不会做的呢/你有不会做的吗/你有不能做的吗/你真的什么都会做吗/你有没有不能做的事情啊/你有不能做的事情吗/你是不是什么都会啊/你是不是什么都能做啊/你是不是没有不会做的事情啊</t>
   </si>
   <si>
     <t>违法犯纪都不能做。/最遗憾的是我不能跳一段拳手观音，嘤嘤嘤/这个问题我先和度娘商量商量</t>
@@ -173,7 +170,7 @@
   </si>
   <si>
     <r>
-      <t>你叫什么名字啊！/你是谁/你介绍一下自己呢/你做个自我介绍吧/ 我不认识你/我们第一次见呢/你叫什么名字/你是谁啊/你是什么东西/你谁啊/你叫什么？/你叫什么啊？/你有名字吗/你的名字叫什么啊/你的名字叫什么/你好，你叫什么/你好啊，你叫什么名字/你好，你叫什么名字啊/你好，你叫什么啊/那你什么东西啊/你叫什么/你叫啥会啥/你叫什么名字呀/你是什么啊/你的名字是什么/</t>
+      <t>你有什么不会做的么？/你不会做什么/你不能做什么/你不会做的都有什么/你不会做的都有什么啊/哪些是你不会做的呢/你有不会做的吗/你有不能做的吗/你真的什么都会做吗/你有没有不能做的事情啊/你有不能做的事情吗/你是不是什么都会啊/你是不是什么都能做啊/你是不是没有不会做的事情啊</t>
     </r>
     <r>
       <rPr>
@@ -183,7 +180,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>你叫什么呀/你是谁呀/你叫什么呢/叫什么名字/我不知道你叫什么名字啊/叫什么名字啊/你叫什么名字了/哦你叫什么啊/你叫啥名字/你叫什么名字呢/姐姐叫什么名字啊/这个是什么东西啊/我不知道你叫什么名字/请问你叫什么名字/请问一下你叫什么名字/你叫什么呀/你叫谁呀你是什么你是谁/你叫什么名字呀朋友/叫什么名字啊/我问你叫什么名字/是什么东西</t>
+      <t>/你不会做吗</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -200,23 +197,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>再见哦/好的拜拜/再见拜拜/拜拜再见/好的再见啦/好了拜拜哈</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>你有什么能帮我的？/你有什么能帮助我的/你能为我做什么/你能为我做些什么/你能为我做什么呢/你能为我办什么业务/你能帮我什么？/你能帮我做什么/你可以帮我吗/你可以帮助我吗/我可以问你问题吗/我可以寻求你的帮助吗/你可以帮我吗/你能帮我办理什么业务/你会办什么业务/你都会做什么啊/你会什么/你都会些什么/我可以找你帮忙吗/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFC00000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>你都会什么啊/你会什么呀/你会什么啊/你是做什么的啊/你会什么呢/请你帮忙可以吗/你会干什么呀/你还可以干什么呢</t>
+      <t>再见哦/好的拜拜/再见拜拜/拜拜再见/好的再见啦/好了拜拜哈/我回家了再见好吗/再见啦/猪头拜拜</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -233,7 +214,39 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>谢谢你啦我知道啦/给你们的服务态度很满意谢谢/谢谢你啊/嗯好的/谢谢你不需要帮助/好的知道了谢谢/谢谢服务/知道啦谢谢/知道了谢谢/不要了谢谢/哦我知道了/好吧好吧/哈哈哈谢谢/不用了谢谢/谢谢你啊谢谢谢谢</t>
+      <t>谢谢你啦我知道啦/给你们的服务态度很满意谢谢/谢谢你啊/嗯好的/谢谢你不需要帮助/好的知道了谢谢/谢谢服务/知道啦谢谢/知道了谢谢/不要了谢谢/哦我知道了/好吧好吧/哈哈哈谢谢/不用了谢谢/谢谢你啊谢谢谢谢/谢谢你/嗯好的谢谢啊/好谢谢啊/服务很满意谢谢你啊/哦谢谢</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你有什么能帮我的？/你有什么能帮助我的/你能为我做什么/你能为我做些什么/你能为我做什么呢/你能为我办什么业务/你能帮我什么？/你能帮我做什么/你可以帮我吗/你可以帮助我吗/我可以问你问题吗/我可以寻求你的帮助吗/你可以帮我吗/你能帮我办理什么业务/你会办什么业务/你都会做什么啊/你会什么/你都会些什么/我可以找你帮忙吗/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你都会什么啊/你会什么呀/你会什么啊/你是做什么的啊/你会什么呢/请你帮忙可以吗/你会干什么呀/你还可以干什么呢/我需要你帮忙/会做什么呀/你会做什么呀/帮我啦/但需要你的帮助/你能帮助我吗</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你叫什么名字啊！/你是谁/你介绍一下自己呢/你做个自我介绍吧/ 我不认识你/我们第一次见呢/你叫什么名字/你是谁啊/你是什么东西/你谁啊/你叫什么？/你叫什么啊？/你有名字吗/你的名字叫什么啊/你的名字叫什么/你好，你叫什么/你好啊，你叫什么名字/你好，你叫什么名字啊/你好，你叫什么啊/那你什么东西啊/你叫什么/你叫啥会啥/你叫什么名字呀/你是什么啊/你的名字是什么/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你叫什么呀/你是谁呀/你叫什么呢/叫什么名字/我不知道你叫什么名字啊/叫什么名字啊/你叫什么名字了/哦你叫什么啊/你叫啥名字/你叫什么名字呢/姐姐叫什么名字啊/这个是什么东西啊/我不知道你叫什么名字/请问你叫什么名字/请问一下你叫什么名字/你叫什么呀/你叫谁呀你是什么你是谁/你叫什么名字呀朋友/叫什么名字啊/我问你叫什么名字/是什么东西/告诉我你叫什么名字啊/告诉我你的名字叫什么啊/我就想知道你叫什么名字/请问你叫什么名字呀/你叫什么呢/你叫啥呀/你告诉他你叫什么名字</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -250,7 +263,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>小朋友你好呀/你好了/猪头你好/你来啦/哈喽你好/你好你好你好/嗯你好啊/机器人你好</t>
+      <t>小朋友你好呀/你好了/猪头你好/你来啦/哈喽你好/你好你好你好/嗯你好啊/机器人你好/你好呀你好呀/hello你好</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -710,7 +723,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -724,7 +737,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -733,42 +746,42 @@
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" ht="76.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" s="9" customFormat="1" ht="89.25" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
@@ -784,16 +797,16 @@
     </row>
     <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -803,16 +816,16 @@
     </row>
     <row r="8" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -822,16 +835,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -898,7 +911,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -912,7 +925,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -921,44 +934,44 @@
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="162" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:6" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -973,7 +986,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -987,7 +1000,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -996,24 +1009,24 @@
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>44</v>
@@ -1021,58 +1034,58 @@
     </row>
     <row r="3" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/update_data/data/bank_psbc/greeting/greeting招呼语介绍结束语.xlsx
+++ b/update_data/data/bank_psbc/greeting/greeting招呼语介绍结束语.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="20730" windowHeight="9840" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="20730" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="自我介绍" sheetId="1" r:id="rId1"/>
@@ -72,9 +72,6 @@
     <t>下午好/储储下午好/下午好储储/储储下午好呀/储储下午好啊/下午好呀/下午好啊/下午好呀储储/下午好啊储储/哈喽，下午好啊/Hi，下午好啊，储储/储储，下午好/哈喽，下午好啊/Hi，下午好啊，储储/储储，下午好/</t>
   </si>
   <si>
-    <t>晚上好/储储晚上好/晚上好储储/储储晚上好呀/储储晚上好啊/晚上好呀/晚上好啊/晚上好呀储储/晚上好啊储储/哈喽，晚上好啊/Hi，晚上好啊，储储/储储，晚上好/</t>
-  </si>
-  <si>
     <t>没人聊找我，没人陪找我，没钱花找我，我就是这么能干！/竹板这么一打啊，别的咱不夸，夸就夸我这个机器人吧，咳咳，我不仅有极高的颜值，还是业务小能手哦~ /大家好，我是银行的小助理储储，是大家财富的聚宝盆。/啦啦啦！啦啦啦！我是业务的小行家，大事小事都来问我，你来问，我来答。</t>
   </si>
   <si>
@@ -150,22 +147,6 @@
   </si>
   <si>
     <t>如果您想了解更多业务，可以扫码关注我行微信公众号哦。/想了解更多业务内容，理财产品可以扫码关注我行微信公众号哦。/了解更多银行咨询，欢迎关注我行微信公众号哦/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>你能做什么/你能做什么/你会做什么？/你是做什么的/你都能做哪些事？/你天天站在这里做什么？/你老板让你在这里做什么？/你可以做什么？/你在这里做什么？/你都帮银行做什么呀？/你是做什么工作的？/你是用来做什么的/你做什么工作啊/你能做哪些事/你都能做些什么啊/你在这里是做什么的啊/你能干什么？/你会干什么？/你是干什么的？/你天天站在这里干什么？/你有什么用/你能干啥/你能干啥呀/你是干啥的/你是干嘛的/你能干些什么呢/你是用来干什么的呢/你的工作是什么/你工作什么职责？/你帮银行什么忙？/你工作是什么？/你会啥？/你会什么/你会什么啊？/你可以干什么/你能干啥/你会啥/你都有啥功能啊/你都有什么功能呢/你会干什么/你会做什么/你懂什么/你会啥子哟/你的职责是什么啊/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在干什么啊/你干什么/干什么/你在干什么啊/我说你站在这里干什么啊/你干什么呀/你在这里干什么啊/干什么呢/你做什么事情呢/你做什么/你干什么呢</t>
-    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -186,6 +167,92 @@
   </si>
   <si>
     <r>
+      <t>你能做什么/你能做什么/你会做什么？/你是做什么的/你都能做哪些事？/你天天站在这里做什么？/你老板让你在这里做什么？/你可以做什么？/你在这里做什么？/你都帮银行做什么呀？/你是做什么工作的？/你是用来做什么的/你做什么工作啊/你能做哪些事/你都能做些什么啊/你在这里是做什么的啊/你能干什么？/你会干什么？/你是干什么的？/你天天站在这里干什么？/你有什么用/你能干啥/你能干啥呀/你是干啥的/你是干嘛的/你能干些什么呢/你是用来干什么的呢/你的工作是什么/你工作什么职责？/你帮银行什么忙？/你工作是什么？/你会啥？/你会什么/你会什么啊？/你可以干什么/你能干啥/你会啥/你都有啥功能啊/你都有什么功能呢/你会干什么/你会做什么/你懂什么/你会啥子哟/你的职责是什么啊/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在干什么啊/你干什么/干什么/你在干什么啊/我说你站在这里干什么啊/你干什么呀/你在这里干什么啊/干什么呢/你做什么事情呢/你做什么/你干什么呢/你好请问你要干什么呢/你在干什么/那你能做什么/请问你能干什么</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你有什么能帮我的？/你有什么能帮助我的/你能为我做什么/你能为我做些什么/你能为我做什么呢/你能为我办什么业务/你能帮我什么？/你能帮我做什么/你可以帮我吗/你可以帮助我吗/我可以问你问题吗/我可以寻求你的帮助吗/你可以帮我吗/你能帮我办理什么业务/你会办什么业务/你都会做什么啊/你会什么/你都会些什么/我可以找你帮忙吗/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你都会什么啊/你会什么呀/你会什么啊/你是做什么的啊/你会什么呢/请你帮忙可以吗/你会干什么呀/你还可以干什么呢/我需要你帮忙/会做什么呀/你会做什么呀/帮我啦/但需要你的帮助/你能帮助我吗/你会做些什么呢/你懂啥</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你叫什么名字啊！/你是谁/你介绍一下自己呢/你做个自我介绍吧/ 我不认识你/我们第一次见呢/你叫什么名字/你是谁啊/你是什么东西/你谁啊/你叫什么？/你叫什么啊？/你有名字吗/你的名字叫什么啊/你的名字叫什么/你好，你叫什么/你好啊，你叫什么名字/你好，你叫什么名字啊/你好，你叫什么啊/那你什么东西啊/你叫什么/你叫啥会啥/你叫什么名字呀/你是什么啊/你的名字是什么/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你叫什么呀/你是谁呀/你叫什么呢/叫什么名字/我不知道你叫什么名字啊/叫什么名字啊/你叫什么名字了/哦你叫什么啊/你叫啥名字/你叫什么名字呢/姐姐叫什么名字啊/这个是什么东西啊/我不知道你叫什么名字/请问你叫什么名字/请问一下你叫什么名字/你叫什么呀/你叫谁呀你是什么你是谁/你叫什么名字呀朋友/叫什么名字啊/我问你叫什么名字/是什么东西/告诉我你叫什么名字啊/告诉我你的名字叫什么啊/我就想知道你叫什么名字/请问你叫什么名字呀/你叫什么呢/你叫啥呀/你告诉他你叫什么名字/那你叫什么名字呀/叫什么/这机器人叫什么名字/小朋友你叫什么名字/机器人你叫什么名字/你好请问你叫什么名字呀</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>好的/知道了/行/OK/好/我知道了/我考虑考虑/行吧/就这样吧/那就这样/好吧/嗯好/嗯知道了/我知道的/我已经取号了/晓得了/哦，知道了/好的，知道了/知道了，谢谢/哦好的/谢谢你/谢谢/谢谢你哦/我知道了，谢谢/好的谢谢/哦，好的/好的，我知道了/哦，我知道了/我知道了/谢谢啦/明白了/我明白了，谢谢你/明白/好吧，那就这样/我懂了/我懂了，谢谢/嗯我懂了/原来是这样啊/这样啊/原来是这样啊，谢谢你/这样啊，谢谢/哦原来是这样啊/哦我懂了/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>谢谢你啦我知道啦/给你们的服务态度很满意谢谢/谢谢你啊/嗯好的/谢谢你不需要帮助/好的知道了谢谢/谢谢服务/知道啦谢谢/知道了谢谢/不要了谢谢/哦我知道了/好吧好吧/哈哈哈谢谢/不用了谢谢/谢谢你啊谢谢谢谢/谢谢你/嗯好的谢谢啊/好谢谢啊/服务很满意谢谢你啊/哦谢谢/好的谢谢你/我谢谢你啊/我知道了谢谢你/哦知道了/那谢谢你哦/哦好的谢谢你/谢谢你/拜拜拜拜/好的好的/小朋友再见/我懂啦/谢谢你了/哈哈我知道了</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上好/储储晚上好/晚上好储储/储储晚上好呀/储储晚上好啊/晚上好呀/晚上好啊/晚上好呀储储/晚上好啊储储/哈喽，晚上好啊/Hi，晚上好啊，储储/储储，晚上好/</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你好/你好啊/你好呀/嗨你好/嗨/hello/你好你好/您好/储储你好/你好储储/哈喽/嘿/喂/啦/哇/储储/嗨喽/咦/你好啊储储/储储好/我又来了/在吗/你好吗/储储你好呀/储储我来啦/哈喽储储/嘿储储/喂储储/嗨喽储储/Hello/hi/Hi/哈喽，你好啊/Hi，你好/hello，你好/哈喽，你好/你好吗/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>小朋友你好呀/你好了/猪头你好/你来啦/哈喽你好/你好你好你好/嗯你好啊/机器人你好/你好呀你好呀/hello你好/小朋友你好/嗯你好你好/那你好啊/你来啦/你好呀你好/宝贝你好/hello你好机器人/你好朋友</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>再见/bye bye/拜拜/明天见/下回见/下次再见/再见了/我走了/我要走了再见/我要回家了/我要回家了再见/白白/算了拜拜/我还有事先走了哦/下次见/下次见哦/我走啦拜拜/我走了不要想我哦/下回再见/再见咯/</t>
     </r>
     <r>
@@ -197,73 +264,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>再见哦/好的拜拜/再见拜拜/拜拜再见/好的再见啦/好了拜拜哈/我回家了再见好吗/再见啦/猪头拜拜</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>好的/知道了/行/OK/好/我知道了/我考虑考虑/行吧/就这样吧/那就这样/好吧/嗯好/嗯知道了/我知道的/我已经取号了/晓得了/哦，知道了/好的，知道了/知道了，谢谢/哦好的/谢谢你/谢谢/谢谢你哦/我知道了，谢谢/好的谢谢/哦，好的/好的，我知道了/哦，我知道了/我知道了/谢谢啦/明白了/我明白了，谢谢你/明白/好吧，那就这样/我懂了/我懂了，谢谢/嗯我懂了/原来是这样啊/这样啊/原来是这样啊，谢谢你/这样啊，谢谢/哦原来是这样啊/哦我懂了/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>谢谢你啦我知道啦/给你们的服务态度很满意谢谢/谢谢你啊/嗯好的/谢谢你不需要帮助/好的知道了谢谢/谢谢服务/知道啦谢谢/知道了谢谢/不要了谢谢/哦我知道了/好吧好吧/哈哈哈谢谢/不用了谢谢/谢谢你啊谢谢谢谢/谢谢你/嗯好的谢谢啊/好谢谢啊/服务很满意谢谢你啊/哦谢谢</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>你有什么能帮我的？/你有什么能帮助我的/你能为我做什么/你能为我做些什么/你能为我做什么呢/你能为我办什么业务/你能帮我什么？/你能帮我做什么/你可以帮我吗/你可以帮助我吗/我可以问你问题吗/我可以寻求你的帮助吗/你可以帮我吗/你能帮我办理什么业务/你会办什么业务/你都会做什么啊/你会什么/你都会些什么/我可以找你帮忙吗/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFC00000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>你都会什么啊/你会什么呀/你会什么啊/你是做什么的啊/你会什么呢/请你帮忙可以吗/你会干什么呀/你还可以干什么呢/我需要你帮忙/会做什么呀/你会做什么呀/帮我啦/但需要你的帮助/你能帮助我吗</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>你叫什么名字啊！/你是谁/你介绍一下自己呢/你做个自我介绍吧/ 我不认识你/我们第一次见呢/你叫什么名字/你是谁啊/你是什么东西/你谁啊/你叫什么？/你叫什么啊？/你有名字吗/你的名字叫什么啊/你的名字叫什么/你好，你叫什么/你好啊，你叫什么名字/你好，你叫什么名字啊/你好，你叫什么啊/那你什么东西啊/你叫什么/你叫啥会啥/你叫什么名字呀/你是什么啊/你的名字是什么/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>你叫什么呀/你是谁呀/你叫什么呢/叫什么名字/我不知道你叫什么名字啊/叫什么名字啊/你叫什么名字了/哦你叫什么啊/你叫啥名字/你叫什么名字呢/姐姐叫什么名字啊/这个是什么东西啊/我不知道你叫什么名字/请问你叫什么名字/请问一下你叫什么名字/你叫什么呀/你叫谁呀你是什么你是谁/你叫什么名字呀朋友/叫什么名字啊/我问你叫什么名字/是什么东西/告诉我你叫什么名字啊/告诉我你的名字叫什么啊/我就想知道你叫什么名字/请问你叫什么名字呀/你叫什么呢/你叫啥呀/你告诉他你叫什么名字</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>你好/你好啊/你好呀/嗨你好/嗨/hello/你好你好/您好/储储你好/你好储储/哈喽/嘿/喂/啦/哇/储储/嗨喽/咦/你好啊储储/储储好/我又来了/在吗/你好吗/储储你好呀/储储我来啦/哈喽储储/嘿储储/喂储储/嗨喽储储/Hello/hi/Hi/哈喽，你好啊/Hi，你好/hello，你好/哈喽，你好/你好吗/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>小朋友你好呀/你好了/猪头你好/你来啦/哈喽你好/你好你好你好/嗯你好啊/机器人你好/你好呀你好呀/hello你好</t>
+      <t>再见哦/好的拜拜/再见拜拜/拜拜再见/好的再见啦/好了拜拜哈/我回家了再见好吗/再见啦/猪头拜拜/谢谢你拜拜/再见我最爱的你/晚安啦/机器人拜拜</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -722,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -737,7 +738,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -746,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>12</v>
@@ -755,15 +756,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="144" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>38</v>
@@ -771,23 +772,23 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" ht="89.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" s="9" customFormat="1" ht="102" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -797,16 +798,16 @@
     </row>
     <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -816,16 +817,16 @@
     </row>
     <row r="8" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -835,7 +836,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>4</v>
@@ -911,7 +912,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -925,7 +926,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -934,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>12</v>
@@ -943,15 +944,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="175.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>41</v>
@@ -960,18 +961,18 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -985,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1000,7 +1001,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -1009,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>12</v>
@@ -1018,26 +1019,26 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="108" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="135" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -1048,10 +1049,10 @@
     </row>
     <row r="4" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -1062,10 +1063,10 @@
     </row>
     <row r="5" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -1076,16 +1077,16 @@
     </row>
     <row r="6" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
+      <c r="D6" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
